--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_22_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_22_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>274143.5627293278</v>
+        <v>264133.484852977</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14856599.60827501</v>
+        <v>14856599.60827499</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3419457.999880049</v>
+        <v>3419457.99988005</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.21588118932758</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.8538026655811354</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>29.75308270337462</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>29.75308270337462</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>14.36207852374645</v>
       </c>
       <c r="R2" t="n">
-        <v>29.75308270337462</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>29.75308270337462</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>29.75308270337462</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.781435841159877</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>29.75308270337462</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.3978788172526</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.94682028185201</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>8.833463008242489</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>17.37305223688987</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>29.75308270337462</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>29.75308270337462</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>29.75308270337462</v>
       </c>
     </row>
     <row r="4">
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.96512026740565</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>37.52930446208641</v>
+        <v>33.05581137020576</v>
       </c>
       <c r="H5" t="n">
-        <v>37.52930446208641</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>37.52930446208641</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.09069110280005</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>37.52930446208641</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>13.70815661144293</v>
+        <v>13.70815661144291</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.808809210202199</v>
+        <v>5.808809210202178</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>13.53884554856068</v>
       </c>
       <c r="S6" t="n">
-        <v>13.53884554856057</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="T6" t="n">
-        <v>37.52930446208641</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="U6" t="n">
-        <v>37.52930446208641</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>36.97189717859885</v>
       </c>
       <c r="F8" t="n">
-        <v>30.31771916205611</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>47.88733071588096</v>
+        <v>47.88733071588164</v>
       </c>
       <c r="H8" t="n">
-        <v>47.88733071588096</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>47.88733071588096</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.654178016541849</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.207263715949964</v>
+        <v>5.207263715949679</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>47.88733071588164</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>47.88733071588164</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>47.88733071588096</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>47.88733071588096</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>47.88733071588096</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>47.88733071588164</v>
       </c>
       <c r="I9" t="n">
-        <v>25.83617766695378</v>
+        <v>25.83617766695373</v>
       </c>
       <c r="J9" t="n">
-        <v>11.66139295973905</v>
+        <v>11.66139295973891</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.043431125656923</v>
+        <v>3.043431125656738</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>47.88733071588164</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.638159142198163</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>47.88733071588164</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1.638159142199134</v>
       </c>
     </row>
     <row r="10">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2.163201384512211</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.163201384512386</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>219.5565574740967</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="F11" t="n">
-        <v>219.5565574740967</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="G11" t="n">
-        <v>219.5565574740967</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>193.3854158231842</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>91.13088952452711</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>37.6706695439816</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>12.82588865527175</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>49.84238065193495</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>191.2211343439804</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>191.2211343439804</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.78758242229763</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>96.7875824222974</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>213.8998645763261</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>93.09630611656611</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>147.3083566130752</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>33.35391959763675</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
         <v>191.2211343439804</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>161.4836453793825</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>219.5565574740966</v>
       </c>
       <c r="I17" t="n">
-        <v>31.90177044380173</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>96.78758242229763</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>93.09630611656611</v>
       </c>
       <c r="T18" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>145.1860111117259</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>161.6447327596027</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>28.23631971346573</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>191.2211343439804</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>219.5565574740966</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>219.5565574740966</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>31.90177044380173</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>59.22911908072536</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>193.3854158231842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>127.4698881435665</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
@@ -2168,16 +2168,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>86.85407034633536</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9543984734636</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>26.2667358705168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>191.2211343439804</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>26.88507807368225</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2386,7 +2386,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>51.3267869027088</v>
       </c>
     </row>
     <row r="24">
@@ -2402,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>23.77799451897956</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>104.7337711575492</v>
@@ -2453,7 +2453,7 @@
         <v>152.9662577680471</v>
       </c>
       <c r="U24" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
@@ -2465,7 +2465,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
-        <v>157.8079400398083</v>
+        <v>141.8691079719982</v>
       </c>
     </row>
     <row r="25">
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>48.83113304013385</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>255.7849588823068</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>402.4235511641288</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>210.2775313912475</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>249.1208454233366</v>
       </c>
       <c r="Y26" t="n">
-        <v>321.4053951183481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,10 +2636,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
@@ -2648,7 +2648,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>58.87357629831929</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>5.789517020581219</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>79.23162053138269</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>264.5539824275544</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>201.1019066814485</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>143.9869664892692</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2806,7 +2806,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2876,19 +2876,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>27.5817928489364</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H30" t="n">
-        <v>48.19298769507706</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>152.9662577680471</v>
       </c>
       <c r="U30" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -2936,7 +2936,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>157.8079400398083</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>264.5539824275544</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>113.9177371884104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>225.3628962149885</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H32" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.6943214100811</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3113,13 +3113,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>52.92036779456107</v>
       </c>
       <c r="E33" t="n">
-        <v>96.25659239273929</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T33" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>195.2992474636072</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>79.23162053138266</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>48.83113304013384</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>128.4049264841954</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>225.255086885734</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>58.87357629831929</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>195.2992474636072</v>
       </c>
       <c r="V36" t="n">
-        <v>8.194237388960454</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9159111551209</v>
       </c>
       <c r="V37" t="n">
-        <v>22.88166847950842</v>
+        <v>255.7849588823068</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U38" t="n">
-        <v>245.8594889666756</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>217.1896266125112</v>
       </c>
     </row>
     <row r="39">
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>44.80732083950298</v>
       </c>
       <c r="D39" t="n">
-        <v>0.410366858644208</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9159111551209</v>
+        <v>259.4219021912133</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>33.29661725718388</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3793,7 +3793,7 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T41" t="n">
-        <v>138.2003791778774</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>117.7037864261902</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>0.7802132017701933</v>
       </c>
       <c r="T42" t="n">
-        <v>37.64843842388991</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U42" t="n">
         <v>195.2992474636072</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>259.4219021912133</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>180.4957219934231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>65.47877264757584</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>307.6435382738949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,10 +4058,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
@@ -4073,7 +4073,7 @@
         <v>104.7337711575492</v>
       </c>
       <c r="H45" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>170.5558991494278</v>
       </c>
       <c r="W45" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>143.7391556125345</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V46" t="n">
-        <v>96.43708756069873</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>255.7849588823068</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.380246616269969</v>
+        <v>63.3499113357956</v>
       </c>
       <c r="C2" t="n">
-        <v>2.380246616269969</v>
+        <v>63.3499113357956</v>
       </c>
       <c r="D2" t="n">
-        <v>2.380246616269969</v>
+        <v>63.3499113357956</v>
       </c>
       <c r="E2" t="n">
-        <v>2.380246616269969</v>
+        <v>63.3499113357956</v>
       </c>
       <c r="F2" t="n">
-        <v>2.380246616269969</v>
+        <v>62.48748440086516</v>
       </c>
       <c r="G2" t="n">
-        <v>2.380246616269969</v>
+        <v>32.43386550856756</v>
       </c>
       <c r="H2" t="n">
-        <v>2.380246616269969</v>
+        <v>32.43386550856756</v>
       </c>
       <c r="I2" t="n">
         <v>2.380246616269969</v>
@@ -4351,31 +4351,31 @@
         <v>107.9106802520795</v>
       </c>
       <c r="Q2" t="n">
-        <v>107.9106802520795</v>
+        <v>93.40353022809319</v>
       </c>
       <c r="R2" t="n">
-        <v>77.85706135978191</v>
+        <v>93.40353022809319</v>
       </c>
       <c r="S2" t="n">
-        <v>47.80344246748432</v>
+        <v>63.3499113357956</v>
       </c>
       <c r="T2" t="n">
-        <v>47.80344246748432</v>
+        <v>63.3499113357956</v>
       </c>
       <c r="U2" t="n">
-        <v>47.80344246748432</v>
+        <v>63.3499113357956</v>
       </c>
       <c r="V2" t="n">
-        <v>47.80344246748432</v>
+        <v>63.3499113357956</v>
       </c>
       <c r="W2" t="n">
-        <v>47.80344246748432</v>
+        <v>63.3499113357956</v>
       </c>
       <c r="X2" t="n">
-        <v>17.74982357518672</v>
+        <v>63.3499113357956</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.74982357518672</v>
+        <v>63.3499113357956</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.03602201388523</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="C3" t="n">
-        <v>80.03602201388523</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="D3" t="n">
-        <v>80.03602201388523</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="E3" t="n">
-        <v>80.03602201388523</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="F3" t="n">
-        <v>80.03602201388523</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="G3" t="n">
-        <v>76.21638985109747</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="H3" t="n">
-        <v>46.16277095879988</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="I3" t="n">
-        <v>18.48814589086796</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="J3" t="n">
         <v>2.380246616269969</v>
@@ -4415,7 +4415,7 @@
         <v>7.049851354353725</v>
       </c>
       <c r="L3" t="n">
-        <v>13.48396889185922</v>
+        <v>32.0893403575617</v>
       </c>
       <c r="M3" t="n">
         <v>42.93952076820009</v>
@@ -4433,28 +4433,28 @@
         <v>110.0896409061828</v>
       </c>
       <c r="R3" t="n">
-        <v>80.03602201388523</v>
+        <v>110.0896409061828</v>
       </c>
       <c r="S3" t="n">
-        <v>80.03602201388523</v>
+        <v>92.54110329316275</v>
       </c>
       <c r="T3" t="n">
-        <v>80.03602201388523</v>
+        <v>92.54110329316275</v>
       </c>
       <c r="U3" t="n">
-        <v>80.03602201388523</v>
+        <v>92.54110329316275</v>
       </c>
       <c r="V3" t="n">
-        <v>80.03602201388523</v>
+        <v>62.48748440086516</v>
       </c>
       <c r="W3" t="n">
-        <v>80.03602201388523</v>
+        <v>32.43386550856756</v>
       </c>
       <c r="X3" t="n">
-        <v>80.03602201388523</v>
+        <v>32.43386550856756</v>
       </c>
       <c r="Y3" t="n">
-        <v>80.03602201388523</v>
+        <v>2.380246616269969</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150.1172178483456</v>
+        <v>36.39205281172021</v>
       </c>
       <c r="C5" t="n">
-        <v>150.1172178483456</v>
+        <v>36.39205281172021</v>
       </c>
       <c r="D5" t="n">
-        <v>150.1172178483456</v>
+        <v>36.39205281172021</v>
       </c>
       <c r="E5" t="n">
-        <v>150.1172178483456</v>
+        <v>36.39205281172021</v>
       </c>
       <c r="F5" t="n">
-        <v>126.920126669148</v>
+        <v>36.39205281172021</v>
       </c>
       <c r="G5" t="n">
-        <v>89.01173832360618</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="H5" t="n">
-        <v>51.10334997806435</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="I5" t="n">
-        <v>13.19496163252252</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="J5" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="K5" t="n">
         <v>8.579347327526918</v>
       </c>
       <c r="L5" t="n">
-        <v>30.44332621730854</v>
+        <v>30.44332621730853</v>
       </c>
       <c r="M5" t="n">
-        <v>67.59733763477408</v>
+        <v>67.59733763477414</v>
       </c>
       <c r="N5" t="n">
-        <v>104.7513490522397</v>
+        <v>104.7513490522398</v>
       </c>
       <c r="O5" t="n">
-        <v>136.7661938505104</v>
+        <v>136.7661938505106</v>
       </c>
       <c r="P5" t="n">
-        <v>150.1172178483456</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="Q5" t="n">
-        <v>150.1172178483456</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="R5" t="n">
-        <v>150.1172178483456</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="S5" t="n">
-        <v>150.1172178483456</v>
+        <v>112.208829502804</v>
       </c>
       <c r="T5" t="n">
-        <v>150.1172178483456</v>
+        <v>74.3004411572621</v>
       </c>
       <c r="U5" t="n">
-        <v>150.1172178483456</v>
+        <v>74.3004411572621</v>
       </c>
       <c r="V5" t="n">
-        <v>150.1172178483456</v>
+        <v>74.3004411572621</v>
       </c>
       <c r="W5" t="n">
-        <v>150.1172178483456</v>
+        <v>36.39205281172021</v>
       </c>
       <c r="X5" t="n">
-        <v>150.1172178483456</v>
+        <v>36.39205281172021</v>
       </c>
       <c r="Y5" t="n">
-        <v>150.1172178483456</v>
+        <v>36.39205281172021</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.75735554235008</v>
+        <v>54.75735554235013</v>
       </c>
       <c r="C6" t="n">
-        <v>54.75735554235008</v>
+        <v>54.75735554235013</v>
       </c>
       <c r="D6" t="n">
-        <v>54.75735554235008</v>
+        <v>54.75735554235013</v>
       </c>
       <c r="E6" t="n">
-        <v>16.84896719680826</v>
+        <v>54.75735554235013</v>
       </c>
       <c r="F6" t="n">
-        <v>16.84896719680826</v>
+        <v>16.84896719680824</v>
       </c>
       <c r="G6" t="n">
-        <v>16.84896719680826</v>
+        <v>16.84896719680824</v>
       </c>
       <c r="H6" t="n">
-        <v>16.84896719680826</v>
+        <v>16.84896719680824</v>
       </c>
       <c r="I6" t="n">
-        <v>16.84896719680826</v>
+        <v>16.84896719680824</v>
       </c>
       <c r="J6" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="K6" t="n">
-        <v>11.45991954906471</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="L6" t="n">
-        <v>17.44797966023124</v>
+        <v>33.13522710018541</v>
       </c>
       <c r="M6" t="n">
-        <v>54.60199107769679</v>
+        <v>70.289238517651</v>
       </c>
       <c r="N6" t="n">
-        <v>91.75600249516233</v>
+        <v>107.4432499351166</v>
       </c>
       <c r="O6" t="n">
-        <v>128.4760412668173</v>
+        <v>128.4760412668174</v>
       </c>
       <c r="P6" t="n">
-        <v>150.1172178483456</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="Q6" t="n">
-        <v>144.2497337976363</v>
+        <v>144.2497337976366</v>
       </c>
       <c r="R6" t="n">
-        <v>144.2497337976363</v>
+        <v>130.5741322334339</v>
       </c>
       <c r="S6" t="n">
-        <v>130.5741322334337</v>
+        <v>92.66574388789201</v>
       </c>
       <c r="T6" t="n">
-        <v>92.66574388789192</v>
+        <v>54.75735554235013</v>
       </c>
       <c r="U6" t="n">
-        <v>54.75735554235008</v>
+        <v>54.75735554235013</v>
       </c>
       <c r="V6" t="n">
-        <v>54.75735554235008</v>
+        <v>54.75735554235013</v>
       </c>
       <c r="W6" t="n">
-        <v>54.75735554235008</v>
+        <v>54.75735554235013</v>
       </c>
       <c r="X6" t="n">
-        <v>54.75735554235008</v>
+        <v>54.75735554235013</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.75735554235008</v>
+        <v>54.75735554235013</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="C7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="D7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="E7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="F7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="G7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="H7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="I7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="J7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="K7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="L7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="M7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="N7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="O7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="P7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="R7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="S7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="T7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="U7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="V7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="W7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="X7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966917</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>186.2894605241804</v>
+        <v>89.5473782698771</v>
       </c>
       <c r="C8" t="n">
-        <v>186.2894605241804</v>
+        <v>89.5473782698771</v>
       </c>
       <c r="D8" t="n">
-        <v>186.2894605241804</v>
+        <v>89.5473782698771</v>
       </c>
       <c r="E8" t="n">
-        <v>186.2894605241804</v>
+        <v>52.20202758442371</v>
       </c>
       <c r="F8" t="n">
-        <v>155.6655017746288</v>
+        <v>52.20202758442371</v>
       </c>
       <c r="G8" t="n">
-        <v>107.2944606474763</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="H8" t="n">
-        <v>58.92341952032382</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="I8" t="n">
-        <v>10.55237839317133</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="J8" t="n">
-        <v>3.830986457270477</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="K8" t="n">
-        <v>14.50692729709105</v>
+        <v>14.50692729709147</v>
       </c>
       <c r="L8" t="n">
-        <v>42.69658949261906</v>
+        <v>42.69658949261998</v>
       </c>
       <c r="M8" t="n">
-        <v>86.8891424164145</v>
+        <v>86.88914241641578</v>
       </c>
       <c r="N8" t="n">
-        <v>133.6653694418358</v>
+        <v>133.6653694418376</v>
       </c>
       <c r="O8" t="n">
-        <v>172.4340533990888</v>
+        <v>172.4340533990911</v>
       </c>
       <c r="P8" t="n">
-        <v>191.5493228635238</v>
+        <v>191.5493228635266</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.2894605241804</v>
+        <v>186.2894605241835</v>
       </c>
       <c r="R8" t="n">
-        <v>186.2894605241804</v>
+        <v>186.2894605241835</v>
       </c>
       <c r="S8" t="n">
-        <v>186.2894605241804</v>
+        <v>137.9184193970303</v>
       </c>
       <c r="T8" t="n">
-        <v>186.2894605241804</v>
+        <v>137.9184193970303</v>
       </c>
       <c r="U8" t="n">
-        <v>186.2894605241804</v>
+        <v>137.9184193970303</v>
       </c>
       <c r="V8" t="n">
-        <v>186.2894605241804</v>
+        <v>137.9184193970303</v>
       </c>
       <c r="W8" t="n">
-        <v>186.2894605241804</v>
+        <v>137.9184193970303</v>
       </c>
       <c r="X8" t="n">
-        <v>186.2894605241804</v>
+        <v>89.5473782698771</v>
       </c>
       <c r="Y8" t="n">
-        <v>186.2894605241804</v>
+        <v>89.5473782698771</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>186.8204438050844</v>
+        <v>90.07836155077992</v>
       </c>
       <c r="C9" t="n">
-        <v>186.8204438050844</v>
+        <v>90.07836155077992</v>
       </c>
       <c r="D9" t="n">
-        <v>186.8204438050844</v>
+        <v>90.07836155077992</v>
       </c>
       <c r="E9" t="n">
-        <v>138.4494026779319</v>
+        <v>90.07836155077992</v>
       </c>
       <c r="F9" t="n">
-        <v>90.07836155077936</v>
+        <v>90.07836155077992</v>
       </c>
       <c r="G9" t="n">
-        <v>41.70732042362687</v>
+        <v>90.07836155077992</v>
       </c>
       <c r="H9" t="n">
-        <v>41.70732042362687</v>
+        <v>41.70732042362674</v>
       </c>
       <c r="I9" t="n">
-        <v>15.6101712650877</v>
+        <v>15.61017126508762</v>
       </c>
       <c r="J9" t="n">
-        <v>3.830986457270477</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="K9" t="n">
-        <v>15.7518242830034</v>
+        <v>15.75182428300367</v>
       </c>
       <c r="L9" t="n">
-        <v>50.54149103029895</v>
+        <v>50.54149103029954</v>
       </c>
       <c r="M9" t="n">
-        <v>76.58131409841303</v>
+        <v>97.94994843902236</v>
       </c>
       <c r="N9" t="n">
-        <v>123.9897715071352</v>
+        <v>145.3584058477452</v>
       </c>
       <c r="O9" t="n">
-        <v>165.8126597256979</v>
+        <v>187.1812940663083</v>
       </c>
       <c r="P9" t="n">
-        <v>191.5493228635238</v>
+        <v>191.5493228635266</v>
       </c>
       <c r="Q9" t="n">
-        <v>188.4751500093249</v>
+        <v>188.4751500093278</v>
       </c>
       <c r="R9" t="n">
-        <v>188.4751500093249</v>
+        <v>188.4751500093278</v>
       </c>
       <c r="S9" t="n">
-        <v>188.4751500093249</v>
+        <v>140.1041088821746</v>
       </c>
       <c r="T9" t="n">
-        <v>188.4751500093249</v>
+        <v>140.1041088821746</v>
       </c>
       <c r="U9" t="n">
-        <v>188.4751500093249</v>
+        <v>140.1041088821746</v>
       </c>
       <c r="V9" t="n">
-        <v>188.4751500093249</v>
+        <v>140.1041088821746</v>
       </c>
       <c r="W9" t="n">
-        <v>186.8204438050844</v>
+        <v>140.1041088821746</v>
       </c>
       <c r="X9" t="n">
-        <v>186.8204438050844</v>
+        <v>91.73306775502147</v>
       </c>
       <c r="Y9" t="n">
-        <v>186.8204438050844</v>
+        <v>90.07836155077992</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.016038360818165</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="C10" t="n">
-        <v>6.016038360818165</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="D10" t="n">
-        <v>6.016038360818165</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="E10" t="n">
-        <v>6.016038360818165</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="F10" t="n">
-        <v>6.016038360818165</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="G10" t="n">
-        <v>6.016038360818165</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="H10" t="n">
-        <v>6.016038360818165</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="I10" t="n">
-        <v>6.016038360818165</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="J10" t="n">
-        <v>6.016038360818165</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="K10" t="n">
-        <v>6.016038360818165</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="L10" t="n">
-        <v>3.830986457270477</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="M10" t="n">
-        <v>3.830986457270477</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="N10" t="n">
-        <v>6.016038360818165</v>
+        <v>6.016038360818396</v>
       </c>
       <c r="O10" t="n">
-        <v>6.016038360818165</v>
+        <v>6.016038360818396</v>
       </c>
       <c r="P10" t="n">
-        <v>6.016038360818165</v>
+        <v>6.016038360818396</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.016038360818165</v>
+        <v>6.016038360818396</v>
       </c>
       <c r="R10" t="n">
-        <v>6.016038360818165</v>
+        <v>6.016038360818396</v>
       </c>
       <c r="S10" t="n">
-        <v>6.016038360818165</v>
+        <v>6.016038360818396</v>
       </c>
       <c r="T10" t="n">
-        <v>6.016038360818165</v>
+        <v>6.016038360818396</v>
       </c>
       <c r="U10" t="n">
-        <v>6.016038360818165</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="V10" t="n">
-        <v>6.016038360818165</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="W10" t="n">
-        <v>6.016038360818165</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="X10" t="n">
-        <v>6.016038360818165</v>
+        <v>3.830986457270531</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.016038360818165</v>
+        <v>3.830986457270531</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>878.2262298963867</v>
+        <v>461.1131255556985</v>
       </c>
       <c r="C11" t="n">
-        <v>878.2262298963867</v>
+        <v>461.1131255556985</v>
       </c>
       <c r="D11" t="n">
-        <v>878.2262298963867</v>
+        <v>461.1131255556985</v>
       </c>
       <c r="E11" t="n">
-        <v>656.4519294175011</v>
+        <v>239.3388250768131</v>
       </c>
       <c r="F11" t="n">
-        <v>434.6776289386156</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="G11" t="n">
-        <v>212.90332845973</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="H11" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I11" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J11" t="n">
         <v>61.76566646422719</v>
@@ -5053,40 +5053,40 @@
         <v>420.4501281543864</v>
       </c>
       <c r="N11" t="n">
-        <v>574.0010487547437</v>
+        <v>574.0010487547436</v>
       </c>
       <c r="O11" t="n">
-        <v>713.5940480809679</v>
+        <v>713.5940480809677</v>
       </c>
       <c r="P11" t="n">
-        <v>818.7605380598426</v>
+        <v>818.7605380598425</v>
       </c>
       <c r="Q11" t="n">
-        <v>878.2262298963867</v>
+        <v>878.2262298963861</v>
       </c>
       <c r="R11" t="n">
-        <v>878.2262298963867</v>
+        <v>878.2262298963861</v>
       </c>
       <c r="S11" t="n">
-        <v>878.2262298963867</v>
+        <v>774.9388295947123</v>
       </c>
       <c r="T11" t="n">
-        <v>878.2262298963867</v>
+        <v>774.9388295947123</v>
       </c>
       <c r="U11" t="n">
-        <v>878.2262298963867</v>
+        <v>682.8874260345839</v>
       </c>
       <c r="V11" t="n">
-        <v>878.2262298963867</v>
+        <v>682.8874260345839</v>
       </c>
       <c r="W11" t="n">
-        <v>878.2262298963867</v>
+        <v>682.8874260345839</v>
       </c>
       <c r="X11" t="n">
-        <v>878.2262298963867</v>
+        <v>682.8874260345839</v>
       </c>
       <c r="Y11" t="n">
-        <v>878.2262298963867</v>
+        <v>682.8874260345839</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>151.559595848982</v>
+        <v>119.107842611961</v>
       </c>
       <c r="C12" t="n">
-        <v>17.56452459792774</v>
+        <v>119.107842611961</v>
       </c>
       <c r="D12" t="n">
-        <v>17.56452459792774</v>
+        <v>119.107842611961</v>
       </c>
       <c r="E12" t="n">
-        <v>17.56452459792774</v>
+        <v>81.05666125440385</v>
       </c>
       <c r="F12" t="n">
-        <v>17.56452459792774</v>
+        <v>81.05666125440385</v>
       </c>
       <c r="G12" t="n">
-        <v>17.56452459792774</v>
+        <v>81.05666125440385</v>
       </c>
       <c r="H12" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I12" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J12" t="n">
-        <v>36.2691938677775</v>
+        <v>36.26919386777749</v>
       </c>
       <c r="K12" t="n">
         <v>99.89115689943327</v>
@@ -5144,28 +5144,28 @@
         <v>715.3219541700633</v>
       </c>
       <c r="R12" t="n">
-        <v>715.3219541700633</v>
+        <v>702.3665110839303</v>
       </c>
       <c r="S12" t="n">
-        <v>715.3219541700633</v>
+        <v>702.3665110839303</v>
       </c>
       <c r="T12" t="n">
-        <v>664.9761151277048</v>
+        <v>546.0525378825985</v>
       </c>
       <c r="U12" t="n">
-        <v>664.9761151277048</v>
+        <v>546.0525378825985</v>
       </c>
       <c r="V12" t="n">
-        <v>451.2645881207387</v>
+        <v>332.3410108756323</v>
       </c>
       <c r="W12" t="n">
-        <v>451.2645881207387</v>
+        <v>119.107842611961</v>
       </c>
       <c r="X12" t="n">
-        <v>451.2645881207387</v>
+        <v>119.107842611961</v>
       </c>
       <c r="Y12" t="n">
-        <v>291.8626284845687</v>
+        <v>119.107842611961</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="C13" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="D13" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="E13" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="F13" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="G13" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="H13" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I13" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J13" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="K13" t="n">
-        <v>37.5503278868253</v>
+        <v>37.55032788682529</v>
       </c>
       <c r="L13" t="n">
-        <v>75.23712329476737</v>
+        <v>75.23712329476736</v>
       </c>
       <c r="M13" t="n">
         <v>116.2921695945573</v>
@@ -5232,19 +5232,19 @@
         <v>210.7171855514433</v>
       </c>
       <c r="U13" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="V13" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="W13" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="X13" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.3388250768132</v>
+        <v>337.1040598468105</v>
       </c>
       <c r="C14" t="n">
-        <v>239.3388250768132</v>
+        <v>337.1040598468105</v>
       </c>
       <c r="D14" t="n">
-        <v>239.3388250768132</v>
+        <v>337.1040598468105</v>
       </c>
       <c r="E14" t="n">
-        <v>239.3388250768132</v>
+        <v>337.1040598468105</v>
       </c>
       <c r="F14" t="n">
-        <v>17.56452459792773</v>
+        <v>337.1040598468105</v>
       </c>
       <c r="G14" t="n">
-        <v>17.56452459792773</v>
+        <v>239.3388250768131</v>
       </c>
       <c r="H14" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I14" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J14" t="n">
-        <v>61.76566646422714</v>
+        <v>61.76566646422719</v>
       </c>
       <c r="K14" t="n">
         <v>148.5608200474256</v>
       </c>
       <c r="L14" t="n">
-        <v>271.1830965723315</v>
+        <v>271.1830965723313</v>
       </c>
       <c r="M14" t="n">
-        <v>420.4501281543866</v>
+        <v>420.4501281543864</v>
       </c>
       <c r="N14" t="n">
-        <v>574.0010487547438</v>
+        <v>574.0010487547436</v>
       </c>
       <c r="O14" t="n">
-        <v>713.594048080968</v>
+        <v>713.5940480809677</v>
       </c>
       <c r="P14" t="n">
-        <v>818.7605380598428</v>
+        <v>818.7605380598425</v>
       </c>
       <c r="Q14" t="n">
-        <v>878.2262298963865</v>
+        <v>878.2262298963861</v>
       </c>
       <c r="R14" t="n">
-        <v>878.2262298963865</v>
+        <v>878.2262298963861</v>
       </c>
       <c r="S14" t="n">
-        <v>774.9388295947126</v>
+        <v>774.9388295947123</v>
       </c>
       <c r="T14" t="n">
-        <v>558.8783603256963</v>
+        <v>558.8783603256959</v>
       </c>
       <c r="U14" t="n">
-        <v>558.8783603256963</v>
+        <v>337.1040598468105</v>
       </c>
       <c r="V14" t="n">
-        <v>558.8783603256963</v>
+        <v>337.1040598468105</v>
       </c>
       <c r="W14" t="n">
-        <v>558.8783603256963</v>
+        <v>337.1040598468105</v>
       </c>
       <c r="X14" t="n">
-        <v>558.8783603256963</v>
+        <v>337.1040598468105</v>
       </c>
       <c r="Y14" t="n">
-        <v>337.1040598468109</v>
+        <v>337.1040598468105</v>
       </c>
     </row>
     <row r="15">
@@ -5333,31 +5333,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.56452459792773</v>
+        <v>254.9544983862073</v>
       </c>
       <c r="C15" t="n">
-        <v>17.56452459792773</v>
+        <v>254.9544983862073</v>
       </c>
       <c r="D15" t="n">
-        <v>17.56452459792773</v>
+        <v>138.0573406055997</v>
       </c>
       <c r="E15" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="F15" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="G15" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="H15" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I15" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J15" t="n">
-        <v>36.2691938677775</v>
+        <v>36.26919386777749</v>
       </c>
       <c r="K15" t="n">
         <v>99.89115689943327</v>
@@ -5384,25 +5384,25 @@
         <v>715.3219541700633</v>
       </c>
       <c r="S15" t="n">
-        <v>715.3219541700633</v>
+        <v>621.2852813250471</v>
       </c>
       <c r="T15" t="n">
-        <v>715.3219541700633</v>
+        <v>464.9713081237153</v>
       </c>
       <c r="U15" t="n">
-        <v>715.3219541700633</v>
+        <v>464.9713081237153</v>
       </c>
       <c r="V15" t="n">
-        <v>566.5256343588762</v>
+        <v>464.9713081237153</v>
       </c>
       <c r="W15" t="n">
-        <v>353.2924660952049</v>
+        <v>431.2804802473145</v>
       </c>
       <c r="X15" t="n">
-        <v>176.9664842340977</v>
+        <v>254.9544983862073</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.56452459792773</v>
+        <v>254.9544983862073</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="C16" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="D16" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="E16" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="F16" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="G16" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="H16" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I16" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J16" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="K16" t="n">
         <v>37.55032788682529</v>
       </c>
       <c r="L16" t="n">
-        <v>75.23712329476737</v>
+        <v>75.23712329476736</v>
       </c>
       <c r="M16" t="n">
         <v>116.2921695945573</v>
@@ -5469,19 +5469,19 @@
         <v>210.7171855514433</v>
       </c>
       <c r="U16" t="n">
-        <v>17.56452459792773</v>
+        <v>210.7171855514433</v>
       </c>
       <c r="V16" t="n">
-        <v>17.56452459792773</v>
+        <v>210.7171855514433</v>
       </c>
       <c r="W16" t="n">
-        <v>17.56452459792773</v>
+        <v>210.7171855514433</v>
       </c>
       <c r="X16" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>878.2262298963864</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="C17" t="n">
-        <v>878.2262298963864</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="D17" t="n">
-        <v>878.2262298963864</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="E17" t="n">
-        <v>715.1114365838788</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="F17" t="n">
-        <v>493.3371361049933</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="G17" t="n">
-        <v>271.5628356261079</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="H17" t="n">
-        <v>49.78853514722241</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I17" t="n">
         <v>17.56452459792773</v>
       </c>
       <c r="J17" t="n">
-        <v>61.76566646422725</v>
+        <v>61.76566646422714</v>
       </c>
       <c r="K17" t="n">
         <v>148.5608200474255</v>
       </c>
       <c r="L17" t="n">
-        <v>271.1830965723313</v>
+        <v>271.1830965723312</v>
       </c>
       <c r="M17" t="n">
         <v>420.4501281543865</v>
@@ -5530,37 +5530,37 @@
         <v>574.0010487547437</v>
       </c>
       <c r="O17" t="n">
-        <v>713.5940480809679</v>
+        <v>713.5940480809682</v>
       </c>
       <c r="P17" t="n">
-        <v>818.7605380598427</v>
+        <v>818.7605380598428</v>
       </c>
       <c r="Q17" t="n">
-        <v>878.2262298963864</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="R17" t="n">
-        <v>878.2262298963864</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="S17" t="n">
-        <v>878.2262298963864</v>
+        <v>774.9388295947126</v>
       </c>
       <c r="T17" t="n">
-        <v>878.2262298963864</v>
+        <v>558.8783603256963</v>
       </c>
       <c r="U17" t="n">
-        <v>878.2262298963864</v>
+        <v>337.1040598468109</v>
       </c>
       <c r="V17" t="n">
-        <v>878.2262298963864</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="W17" t="n">
-        <v>878.2262298963864</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="X17" t="n">
-        <v>878.2262298963864</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="Y17" t="n">
-        <v>878.2262298963864</v>
+        <v>239.3388250768132</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>272.052411856654</v>
+        <v>244.2962464800984</v>
       </c>
       <c r="C18" t="n">
-        <v>138.0573406055997</v>
+        <v>244.2962464800984</v>
       </c>
       <c r="D18" t="n">
-        <v>138.0573406055997</v>
+        <v>244.2962464800984</v>
       </c>
       <c r="E18" t="n">
-        <v>17.56452459792773</v>
+        <v>123.8034304724264</v>
       </c>
       <c r="F18" t="n">
-        <v>17.56452459792773</v>
+        <v>123.8034304724264</v>
       </c>
       <c r="G18" t="n">
         <v>17.56452459792773</v>
@@ -5621,25 +5621,25 @@
         <v>715.3219541700633</v>
       </c>
       <c r="S18" t="n">
-        <v>715.3219541700633</v>
+        <v>621.2852813250471</v>
       </c>
       <c r="T18" t="n">
-        <v>559.0079809687315</v>
+        <v>621.2852813250471</v>
       </c>
       <c r="U18" t="n">
-        <v>412.3554444922407</v>
+        <v>621.2852813250471</v>
       </c>
       <c r="V18" t="n">
-        <v>412.3554444922407</v>
+        <v>407.5737543180809</v>
       </c>
       <c r="W18" t="n">
-        <v>412.3554444922407</v>
+        <v>407.5737543180809</v>
       </c>
       <c r="X18" t="n">
-        <v>412.3554444922407</v>
+        <v>244.2962464800984</v>
       </c>
       <c r="Y18" t="n">
-        <v>412.3554444922407</v>
+        <v>244.2962464800984</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="C19" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="D19" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="E19" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="F19" t="n">
-        <v>46.08605966203453</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="G19" t="n">
-        <v>46.08605966203453</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H19" t="n">
         <v>17.56452459792773</v>
@@ -5709,16 +5709,16 @@
         <v>210.7171855514433</v>
       </c>
       <c r="V19" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="W19" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="X19" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>461.1131255556986</v>
+        <v>493.3371361049934</v>
       </c>
       <c r="C20" t="n">
-        <v>461.1131255556986</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="D20" t="n">
-        <v>461.1131255556986</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="E20" t="n">
-        <v>239.3388250768132</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="F20" t="n">
-        <v>17.56452459792773</v>
+        <v>49.78853514722241</v>
       </c>
       <c r="G20" t="n">
-        <v>17.56452459792773</v>
+        <v>49.78853514722241</v>
       </c>
       <c r="H20" t="n">
-        <v>17.56452459792773</v>
+        <v>49.78853514722241</v>
       </c>
       <c r="I20" t="n">
         <v>17.56452459792773</v>
       </c>
       <c r="J20" t="n">
-        <v>61.76566646422748</v>
+        <v>61.76566646422714</v>
       </c>
       <c r="K20" t="n">
-        <v>148.5608200474258</v>
+        <v>148.5608200474255</v>
       </c>
       <c r="L20" t="n">
-        <v>271.1830965723315</v>
+        <v>271.1830965723312</v>
       </c>
       <c r="M20" t="n">
-        <v>420.4501281543867</v>
+        <v>420.4501281543865</v>
       </c>
       <c r="N20" t="n">
-        <v>574.0010487547438</v>
+        <v>574.0010487547437</v>
       </c>
       <c r="O20" t="n">
-        <v>713.5940480809679</v>
+        <v>713.5940480809678</v>
       </c>
       <c r="P20" t="n">
-        <v>818.7605380598427</v>
+        <v>818.7605380598426</v>
       </c>
       <c r="Q20" t="n">
-        <v>878.2262298963864</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="R20" t="n">
-        <v>878.2262298963864</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="S20" t="n">
-        <v>878.2262298963864</v>
+        <v>774.9388295947126</v>
       </c>
       <c r="T20" t="n">
-        <v>878.2262298963864</v>
+        <v>715.1114365838789</v>
       </c>
       <c r="U20" t="n">
-        <v>878.2262298963864</v>
+        <v>715.1114365838789</v>
       </c>
       <c r="V20" t="n">
-        <v>878.2262298963864</v>
+        <v>715.1114365838789</v>
       </c>
       <c r="W20" t="n">
-        <v>878.2262298963864</v>
+        <v>493.3371361049934</v>
       </c>
       <c r="X20" t="n">
-        <v>878.2262298963864</v>
+        <v>493.3371361049934</v>
       </c>
       <c r="Y20" t="n">
-        <v>682.8874260345841</v>
+        <v>493.3371361049934</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>239.2909800371996</v>
+        <v>430.2505181974522</v>
       </c>
       <c r="C21" t="n">
-        <v>105.2959087861453</v>
+        <v>296.2554469463979</v>
       </c>
       <c r="D21" t="n">
-        <v>105.2959087861453</v>
+        <v>296.2554469463979</v>
       </c>
       <c r="E21" t="n">
-        <v>17.56452459792773</v>
+        <v>296.2554469463979</v>
       </c>
       <c r="F21" t="n">
-        <v>17.56452459792773</v>
+        <v>187.2955671289025</v>
       </c>
       <c r="G21" t="n">
-        <v>17.56452459792773</v>
+        <v>81.05666125440386</v>
       </c>
       <c r="H21" t="n">
         <v>17.56452459792773</v>
@@ -5861,22 +5861,22 @@
         <v>715.3219541700633</v>
       </c>
       <c r="T21" t="n">
-        <v>715.3219541700633</v>
+        <v>559.0079809687315</v>
       </c>
       <c r="U21" t="n">
-        <v>715.3219541700633</v>
+        <v>559.0079809687315</v>
       </c>
       <c r="V21" t="n">
-        <v>715.3219541700633</v>
+        <v>559.0079809687315</v>
       </c>
       <c r="W21" t="n">
-        <v>715.3219541700633</v>
+        <v>559.0079809687315</v>
       </c>
       <c r="X21" t="n">
-        <v>538.9959723089562</v>
+        <v>559.0079809687315</v>
       </c>
       <c r="Y21" t="n">
-        <v>379.5940126727862</v>
+        <v>559.0079809687315</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="C22" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="D22" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="E22" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="F22" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="G22" t="n">
-        <v>44.09658103279318</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H22" t="n">
         <v>17.56452459792773</v>
@@ -5943,19 +5943,19 @@
         <v>210.7171855514433</v>
       </c>
       <c r="U22" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="V22" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="W22" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="X22" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="Y22" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792773</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>863.2383466885142</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="C23" t="n">
-        <v>863.2383466885142</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="D23" t="n">
-        <v>458.7744167815746</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="E23" t="n">
-        <v>458.7744167815746</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="F23" t="n">
-        <v>37.7440047352622</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G23" t="n">
         <v>37.7440047352622</v>
@@ -5986,25 +5986,25 @@
         <v>37.7440047352622</v>
       </c>
       <c r="I23" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J23" t="n">
         <v>151.4749218512231</v>
       </c>
       <c r="K23" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L23" t="n">
-        <v>594.3775951131299</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M23" t="n">
-        <v>887.4914597655645</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N23" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O23" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P23" t="n">
         <v>1687.808675484973</v>
@@ -6016,25 +6016,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S23" t="n">
-        <v>1860.043592244239</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T23" t="n">
-        <v>1647.642045384393</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="U23" t="n">
-        <v>1647.642045384393</v>
+        <v>1630.318932909648</v>
       </c>
       <c r="V23" t="n">
-        <v>1647.642045384393</v>
+        <v>1280.481378246129</v>
       </c>
       <c r="W23" t="n">
-        <v>1263.881744519562</v>
+        <v>896.7210773812972</v>
       </c>
       <c r="X23" t="n">
-        <v>863.2383466885142</v>
+        <v>496.0776795502497</v>
       </c>
       <c r="Y23" t="n">
-        <v>863.2383466885142</v>
+        <v>444.2324402545842</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>226.7268229214317</v>
+        <v>440.0986204279138</v>
       </c>
       <c r="C24" t="n">
-        <v>226.7268229214317</v>
+        <v>440.0986204279138</v>
       </c>
       <c r="D24" t="n">
-        <v>226.7268229214317</v>
+        <v>323.2014626473062</v>
       </c>
       <c r="E24" t="n">
-        <v>226.7268229214317</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="F24" t="n">
         <v>202.7086466396342</v>
@@ -6101,19 +6101,19 @@
         <v>1186.671426824303</v>
       </c>
       <c r="U24" t="n">
-        <v>989.3994596893464</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="V24" t="n">
-        <v>775.6879326823802</v>
+        <v>972.9598998173369</v>
       </c>
       <c r="W24" t="n">
-        <v>562.4547644187089</v>
+        <v>759.7267315536657</v>
       </c>
       <c r="X24" t="n">
-        <v>386.1287825576017</v>
+        <v>583.4007496925585</v>
       </c>
       <c r="Y24" t="n">
-        <v>226.7268229214317</v>
+        <v>440.0986204279138</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>578.8559946720579</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="C25" t="n">
-        <v>578.8559946720579</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="D25" t="n">
-        <v>529.5316178638419</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E25" t="n">
-        <v>368.6208027321614</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F25" t="n">
-        <v>203.9896768427527</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G25" t="n">
         <v>37.7440047352622</v>
@@ -6180,19 +6180,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U25" t="n">
-        <v>578.8559946720579</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="V25" t="n">
-        <v>578.8559946720579</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="W25" t="n">
-        <v>578.8559946720579</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="X25" t="n">
-        <v>578.8559946720579</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="Y25" t="n">
-        <v>578.8559946720579</v>
+        <v>37.7440047352622</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>865.2628523008966</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="C26" t="n">
-        <v>865.2628523008966</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="D26" t="n">
-        <v>865.2628523008966</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="E26" t="n">
-        <v>865.2628523008966</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="F26" t="n">
-        <v>444.2324402545842</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="G26" t="n">
-        <v>37.74400473526219</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H26" t="n">
         <v>37.74400473526219</v>
@@ -6226,7 +6226,7 @@
         <v>37.74400473526219</v>
       </c>
       <c r="J26" t="n">
-        <v>151.474921851223</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K26" t="n">
         <v>342.4771847987903</v>
@@ -6235,7 +6235,7 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M26" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N26" t="n">
         <v>1187.216805582613</v>
@@ -6247,7 +6247,7 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q26" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R26" t="n">
         <v>1887.20023676311</v>
@@ -6259,19 +6259,19 @@
         <v>1590.558164392902</v>
       </c>
       <c r="U26" t="n">
-        <v>1590.558164392902</v>
+        <v>1333.676860539439</v>
       </c>
       <c r="V26" t="n">
-        <v>1590.558164392902</v>
+        <v>983.83930587592</v>
       </c>
       <c r="W26" t="n">
-        <v>1590.558164392902</v>
+        <v>983.83930587592</v>
       </c>
       <c r="X26" t="n">
-        <v>1189.914766561854</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="Y26" t="n">
-        <v>865.2628523008966</v>
+        <v>732.2020882765901</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>518.0889295920915</v>
+        <v>326.6649594476208</v>
       </c>
       <c r="C27" t="n">
-        <v>384.0938583410372</v>
+        <v>326.6649594476208</v>
       </c>
       <c r="D27" t="n">
-        <v>267.1967005604296</v>
+        <v>326.6649594476208</v>
       </c>
       <c r="E27" t="n">
-        <v>146.7038845527576</v>
+        <v>206.1721434399488</v>
       </c>
       <c r="F27" t="n">
-        <v>37.74400473526219</v>
+        <v>97.21226362245341</v>
       </c>
       <c r="G27" t="n">
         <v>37.74400473526219</v>
@@ -6338,19 +6338,19 @@
         <v>1426.912595986079</v>
       </c>
       <c r="U27" t="n">
-        <v>1421.064598995593</v>
+        <v>1229.640628851122</v>
       </c>
       <c r="V27" t="n">
-        <v>1207.353071988627</v>
+        <v>1015.929101844156</v>
       </c>
       <c r="W27" t="n">
-        <v>994.1199037249553</v>
+        <v>802.6959335804846</v>
       </c>
       <c r="X27" t="n">
-        <v>817.7939218638481</v>
+        <v>626.3699517193775</v>
       </c>
       <c r="Y27" t="n">
-        <v>658.3919622276782</v>
+        <v>466.9679920832075</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.74400473526219</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="C28" t="n">
-        <v>37.74400473526219</v>
+        <v>498.8240547413683</v>
       </c>
       <c r="D28" t="n">
-        <v>37.74400473526219</v>
+        <v>339.3294100642784</v>
       </c>
       <c r="E28" t="n">
-        <v>37.74400473526219</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="F28" t="n">
-        <v>37.74400473526219</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="G28" t="n">
-        <v>37.74400473526219</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="H28" t="n">
         <v>37.74400473526219</v>
@@ -6420,16 +6420,16 @@
         <v>578.8559946720579</v>
       </c>
       <c r="V28" t="n">
-        <v>304.9702496115798</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W28" t="n">
-        <v>37.74400473526219</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X28" t="n">
-        <v>37.74400473526219</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="Y28" t="n">
-        <v>37.74400473526219</v>
+        <v>578.8559946720579</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1018.556012556869</v>
+        <v>1684.066997690939</v>
       </c>
       <c r="C29" t="n">
-        <v>1018.556012556869</v>
+        <v>1684.066997690939</v>
       </c>
       <c r="D29" t="n">
-        <v>873.114632264678</v>
+        <v>1279.603067784</v>
       </c>
       <c r="E29" t="n">
-        <v>458.7744167815746</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="F29" t="n">
-        <v>37.74400473526219</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G29" t="n">
         <v>37.74400473526219</v>
@@ -6463,7 +6463,7 @@
         <v>37.74400473526219</v>
       </c>
       <c r="J29" t="n">
-        <v>151.474921851223</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K29" t="n">
         <v>342.4771847987903</v>
@@ -6484,31 +6484,31 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q29" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R29" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S29" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T29" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="U29" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="V29" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="W29" t="n">
-        <v>1419.199410387916</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="X29" t="n">
-        <v>1018.556012556869</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="Y29" t="n">
-        <v>1018.556012556869</v>
+        <v>1887.20023676311</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>86.42379028584509</v>
+        <v>460.021739281909</v>
       </c>
       <c r="C30" t="n">
-        <v>86.42379028584509</v>
+        <v>460.021739281909</v>
       </c>
       <c r="D30" t="n">
-        <v>86.42379028584509</v>
+        <v>432.1613424648016</v>
       </c>
       <c r="E30" t="n">
-        <v>86.42379028584509</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="F30" t="n">
-        <v>86.42379028584509</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="G30" t="n">
-        <v>86.42379028584509</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="H30" t="n">
         <v>37.74400473526219</v>
@@ -6575,19 +6575,19 @@
         <v>1186.671426824303</v>
       </c>
       <c r="U30" t="n">
-        <v>989.3994596893464</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="V30" t="n">
-        <v>775.6879326823802</v>
+        <v>972.9598998173369</v>
       </c>
       <c r="W30" t="n">
-        <v>562.4547644187089</v>
+        <v>759.7267315536657</v>
       </c>
       <c r="X30" t="n">
-        <v>386.1287825576017</v>
+        <v>759.7267315536657</v>
       </c>
       <c r="Y30" t="n">
-        <v>226.7268229214317</v>
+        <v>600.3247719174957</v>
       </c>
     </row>
     <row r="31">
@@ -6654,19 +6654,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U31" t="n">
-        <v>578.8559946720579</v>
+        <v>311.6297497957403</v>
       </c>
       <c r="V31" t="n">
-        <v>578.8559946720579</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="W31" t="n">
-        <v>578.8559946720579</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="X31" t="n">
-        <v>340.5121325317413</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.4437111293066</v>
+        <v>37.74400473526219</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>735.838243443998</v>
+        <v>1076.335659267573</v>
       </c>
       <c r="C32" t="n">
-        <v>325.7136527572681</v>
+        <v>1076.335659267573</v>
       </c>
       <c r="D32" t="n">
-        <v>325.7136527572681</v>
+        <v>671.8717293606333</v>
       </c>
       <c r="E32" t="n">
-        <v>325.7136527572681</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="F32" t="n">
-        <v>325.7136527572681</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G32" t="n">
-        <v>325.7136527572681</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H32" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I32" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J32" t="n">
-        <v>151.4749218512231</v>
+        <v>151.4749218512225</v>
       </c>
       <c r="K32" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987899</v>
       </c>
       <c r="L32" t="n">
         <v>594.3775951131297</v>
       </c>
       <c r="M32" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N32" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O32" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P32" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q32" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R32" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S32" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T32" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="U32" t="n">
-        <v>1546.702820939535</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="V32" t="n">
-        <v>1546.702820939535</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="W32" t="n">
-        <v>1546.702820939535</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="X32" t="n">
-        <v>1146.059423108487</v>
+        <v>1486.556838932062</v>
       </c>
       <c r="Y32" t="n">
-        <v>1146.059423108487</v>
+        <v>1486.556838932062</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>385.8651149717113</v>
+        <v>454.646688775687</v>
       </c>
       <c r="C33" t="n">
-        <v>251.870043720657</v>
+        <v>320.6516175246327</v>
       </c>
       <c r="D33" t="n">
-        <v>134.9728859400494</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="E33" t="n">
-        <v>37.7440047352622</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F33" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G33" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H33" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I33" t="n">
-        <v>38.28095199337146</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J33" t="n">
-        <v>98.39707907527369</v>
+        <v>98.39707907527368</v>
       </c>
       <c r="K33" t="n">
         <v>232.7978194276822</v>
@@ -6806,25 +6806,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S33" t="n">
-        <v>1426.912595986079</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="T33" t="n">
-        <v>1272.401224503203</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="U33" t="n">
-        <v>1075.129257368246</v>
+        <v>1143.910831172222</v>
       </c>
       <c r="V33" t="n">
-        <v>1075.129257368246</v>
+        <v>1143.910831172222</v>
       </c>
       <c r="W33" t="n">
-        <v>861.896089104575</v>
+        <v>930.6776629085508</v>
       </c>
       <c r="X33" t="n">
-        <v>685.5701072434679</v>
+        <v>754.3516810474437</v>
       </c>
       <c r="Y33" t="n">
-        <v>526.1681476072979</v>
+        <v>594.9497214112737</v>
       </c>
     </row>
     <row r="34">
@@ -6840,22 +6840,22 @@
         <v>578.8559946720579</v>
       </c>
       <c r="D34" t="n">
-        <v>578.8559946720579</v>
+        <v>419.361349994968</v>
       </c>
       <c r="E34" t="n">
-        <v>417.9451795403774</v>
+        <v>258.4505348632874</v>
       </c>
       <c r="F34" t="n">
-        <v>253.3140536509687</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="G34" t="n">
-        <v>87.06838154347821</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="H34" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I34" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J34" t="n">
         <v>56.4452522174457</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>447.8685954219921</v>
+        <v>1392.738531588259</v>
       </c>
       <c r="C35" t="n">
-        <v>37.74400473526219</v>
+        <v>1263.036585644627</v>
       </c>
       <c r="D35" t="n">
-        <v>37.74400473526219</v>
+        <v>858.5726557376875</v>
       </c>
       <c r="E35" t="n">
-        <v>37.74400473526219</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="F35" t="n">
-        <v>37.74400473526219</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G35" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H35" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I35" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J35" t="n">
-        <v>151.474921851223</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K35" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L35" t="n">
         <v>594.3775951131297</v>
       </c>
       <c r="M35" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N35" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O35" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P35" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q35" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R35" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S35" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T35" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="U35" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="V35" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="W35" t="n">
-        <v>1659.669845969439</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="X35" t="n">
-        <v>1259.026448138392</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="Y35" t="n">
-        <v>858.0897750864815</v>
+        <v>1802.959711252748</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>432.1613424648016</v>
+        <v>326.6649594476208</v>
       </c>
       <c r="C36" t="n">
-        <v>432.1613424648016</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="D36" t="n">
-        <v>432.1613424648016</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="E36" t="n">
-        <v>311.6685264571296</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F36" t="n">
-        <v>202.7086466396342</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G36" t="n">
-        <v>96.91695860170567</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H36" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I36" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J36" t="n">
-        <v>98.39707907527368</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K36" t="n">
         <v>232.7978194276822</v>
@@ -7043,25 +7043,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S36" t="n">
-        <v>1341.182798307179</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="T36" t="n">
-        <v>1186.671426824303</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="U36" t="n">
-        <v>989.3994596893464</v>
+        <v>1229.640628851122</v>
       </c>
       <c r="V36" t="n">
-        <v>981.12245222575</v>
+        <v>1015.929101844156</v>
       </c>
       <c r="W36" t="n">
-        <v>767.8892839620787</v>
+        <v>802.6959335804846</v>
       </c>
       <c r="X36" t="n">
-        <v>591.5633021009716</v>
+        <v>626.3699517193775</v>
       </c>
       <c r="Y36" t="n">
-        <v>432.1613424648016</v>
+        <v>466.9679920832075</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="C37" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="D37" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E37" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F37" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G37" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H37" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I37" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J37" t="n">
-        <v>1364.789494308498</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K37" t="n">
-        <v>1427.468776269657</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L37" t="n">
-        <v>1519.788525527848</v>
+        <v>211.444283436796</v>
       </c>
       <c r="M37" t="n">
-        <v>1618.446361557357</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N37" t="n">
-        <v>1717.9406327491</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O37" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P37" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q37" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R37" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S37" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T37" t="n">
-        <v>1651.944387871394</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U37" t="n">
-        <v>1369.201043270262</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="V37" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="W37" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="X37" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="Y37" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>444.2324402545842</v>
+        <v>848.6963701615236</v>
       </c>
       <c r="C38" t="n">
-        <v>444.2324402545842</v>
+        <v>848.6963701615236</v>
       </c>
       <c r="D38" t="n">
         <v>444.2324402545842</v>
@@ -7165,37 +7165,37 @@
         <v>444.2324402545842</v>
       </c>
       <c r="G38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I38" t="n">
-        <v>37.74400473526217</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J38" t="n">
-        <v>151.474921851223</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K38" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L38" t="n">
         <v>594.3775951131297</v>
       </c>
       <c r="M38" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N38" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O38" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P38" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q38" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R38" t="n">
         <v>1887.20023676311</v>
@@ -7204,22 +7204,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T38" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="U38" t="n">
-        <v>1638.857318614952</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="V38" t="n">
-        <v>1638.857318614952</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="W38" t="n">
-        <v>1255.097017750121</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="X38" t="n">
-        <v>854.4536199190736</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="Y38" t="n">
-        <v>854.4536199190736</v>
+        <v>848.6963701615236</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>172.153587964745</v>
+        <v>312.4566206003316</v>
       </c>
       <c r="C39" t="n">
-        <v>38.15851671369069</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="D39" t="n">
-        <v>37.74400473526219</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="E39" t="n">
-        <v>37.74400473526219</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F39" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G39" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H39" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I39" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J39" t="n">
-        <v>98.39707907527368</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K39" t="n">
         <v>232.7978194276822</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="C40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="D40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J40" t="n">
         <v>56.4452522174457</v>
@@ -7365,19 +7365,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U40" t="n">
-        <v>296.1126500709257</v>
+        <v>316.8136692263878</v>
       </c>
       <c r="V40" t="n">
-        <v>296.1126500709257</v>
+        <v>316.8136692263878</v>
       </c>
       <c r="W40" t="n">
-        <v>296.1126500709257</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="X40" t="n">
-        <v>262.4797033464975</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="Y40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1279.603067784</v>
+        <v>1684.066997690939</v>
       </c>
       <c r="C41" t="n">
-        <v>1279.603067784</v>
+        <v>1684.066997690939</v>
       </c>
       <c r="D41" t="n">
         <v>1279.603067784</v>
@@ -7411,19 +7411,19 @@
         <v>37.74400473526219</v>
       </c>
       <c r="J41" t="n">
-        <v>151.4749218512232</v>
+        <v>151.474921851223</v>
       </c>
       <c r="K41" t="n">
-        <v>342.4771847987905</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L41" t="n">
-        <v>594.3775951131299</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M41" t="n">
-        <v>887.4914597655645</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N41" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O41" t="n">
         <v>1464.838169622267</v>
@@ -7432,7 +7432,7 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q41" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R41" t="n">
         <v>1887.20023676311</v>
@@ -7441,22 +7441,22 @@
         <v>1802.959711252748</v>
       </c>
       <c r="T41" t="n">
-        <v>1663.363368648831</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="U41" t="n">
-        <v>1663.363368648831</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="V41" t="n">
-        <v>1663.363368648831</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="W41" t="n">
-        <v>1279.603067784</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="X41" t="n">
-        <v>1279.603067784</v>
+        <v>1684.066997690939</v>
       </c>
       <c r="Y41" t="n">
-        <v>1279.603067784</v>
+        <v>1684.066997690939</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>288.6362337669241</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="C42" t="n">
-        <v>154.6411625158698</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="D42" t="n">
-        <v>37.74400473526219</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="E42" t="n">
-        <v>37.74400473526219</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="F42" t="n">
-        <v>37.74400473526219</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="G42" t="n">
-        <v>37.74400473526219</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="H42" t="n">
         <v>37.74400473526219</v>
@@ -7517,25 +7517,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S42" t="n">
-        <v>1426.912595986079</v>
+        <v>1426.124501842877</v>
       </c>
       <c r="T42" t="n">
-        <v>1388.883870305382</v>
+        <v>1271.613130360001</v>
       </c>
       <c r="U42" t="n">
-        <v>1191.611903170425</v>
+        <v>1074.341163225044</v>
       </c>
       <c r="V42" t="n">
-        <v>977.9003761634591</v>
+        <v>860.629636218078</v>
       </c>
       <c r="W42" t="n">
-        <v>764.6672078997879</v>
+        <v>647.3964679544067</v>
       </c>
       <c r="X42" t="n">
-        <v>588.3412260386807</v>
+        <v>471.0704860932996</v>
       </c>
       <c r="Y42" t="n">
-        <v>428.9392664025107</v>
+        <v>311.6685264571296</v>
       </c>
     </row>
     <row r="43">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>208.8373771735457</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="C43" t="n">
         <v>37.74400473526219</v>
@@ -7602,19 +7602,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U43" t="n">
-        <v>578.8559946720579</v>
+        <v>316.8136692263878</v>
       </c>
       <c r="V43" t="n">
-        <v>578.8559946720579</v>
+        <v>316.8136692263878</v>
       </c>
       <c r="W43" t="n">
-        <v>578.8559946720579</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="X43" t="n">
-        <v>578.8559946720579</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="Y43" t="n">
-        <v>396.5370835675901</v>
+        <v>37.74400473526219</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>442.2079346422017</v>
+        <v>1258.820960848253</v>
       </c>
       <c r="C44" t="n">
-        <v>442.2079346422017</v>
+        <v>848.6963701615236</v>
       </c>
       <c r="D44" t="n">
-        <v>37.74400473526219</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="E44" t="n">
-        <v>37.74400473526219</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="F44" t="n">
-        <v>37.74400473526219</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G44" t="n">
         <v>37.74400473526219</v>
@@ -7645,19 +7645,19 @@
         <v>37.74400473526219</v>
       </c>
       <c r="I44" t="n">
-        <v>37.74400473526225</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J44" t="n">
         <v>151.4749218512231</v>
       </c>
       <c r="K44" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L44" t="n">
         <v>594.3775951131297</v>
       </c>
       <c r="M44" t="n">
-        <v>887.4914597655642</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N44" t="n">
         <v>1187.216805582613</v>
@@ -7669,7 +7669,7 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q44" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R44" t="n">
         <v>1887.20023676311</v>
@@ -7678,22 +7678,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T44" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="U44" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="V44" t="n">
-        <v>1537.362682099591</v>
+        <v>1324.961135239744</v>
       </c>
       <c r="W44" t="n">
-        <v>1153.602381234759</v>
+        <v>1324.961135239744</v>
       </c>
       <c r="X44" t="n">
-        <v>752.9589834037117</v>
+        <v>1324.961135239744</v>
       </c>
       <c r="Y44" t="n">
-        <v>442.2079346422017</v>
+        <v>1324.961135239744</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>683.0535714964635</v>
+        <v>372.9883885983581</v>
       </c>
       <c r="C45" t="n">
-        <v>549.0585002454092</v>
+        <v>372.9883885983581</v>
       </c>
       <c r="D45" t="n">
-        <v>432.1613424648016</v>
+        <v>372.9883885983581</v>
       </c>
       <c r="E45" t="n">
-        <v>311.6685264571296</v>
+        <v>252.4955725906861</v>
       </c>
       <c r="F45" t="n">
-        <v>202.7086466396342</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G45" t="n">
-        <v>96.91695860170567</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H45" t="n">
         <v>37.74400473526219</v>
@@ -7754,25 +7754,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S45" t="n">
-        <v>1341.182798307179</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="T45" t="n">
-        <v>1341.182798307179</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U45" t="n">
-        <v>1341.182798307179</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V45" t="n">
-        <v>1341.182798307179</v>
+        <v>902.8505713587232</v>
       </c>
       <c r="W45" t="n">
-        <v>1127.949630043508</v>
+        <v>689.6174030950519</v>
       </c>
       <c r="X45" t="n">
-        <v>982.7585637682201</v>
+        <v>513.2914212339448</v>
       </c>
       <c r="Y45" t="n">
-        <v>823.3566041320502</v>
+        <v>513.2914212339448</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>202.3751306246709</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="C46" t="n">
-        <v>202.3751306246709</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="D46" t="n">
-        <v>202.3751306246709</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="E46" t="n">
-        <v>202.3751306246709</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F46" t="n">
         <v>37.74400473526219</v>
@@ -7839,19 +7839,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U46" t="n">
-        <v>578.8559946720579</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="V46" t="n">
-        <v>481.4447951157966</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="W46" t="n">
-        <v>202.3751306246709</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="X46" t="n">
-        <v>202.3751306246709</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.3751306246709</v>
+        <v>37.74400473526219</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.903086678517</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -22558,16 +22558,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>415.9663052602681</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9402641441699</v>
+        <v>374.1871814407953</v>
       </c>
       <c r="H2" t="n">
         <v>300.6229883486327</v>
       </c>
       <c r="I2" t="n">
-        <v>58.47307716303857</v>
+        <v>28.71999445966395</v>
       </c>
       <c r="J2" t="n">
         <v>13.84940403122595</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.36207852374645</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>13.54138187615359</v>
+        <v>43.2944645795282</v>
       </c>
       <c r="S2" t="n">
         <v>88.20713458457273</v>
@@ -22612,7 +22612,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>366.8838811493624</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -22640,16 +22640,16 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>101.7638483037765</v>
+        <v>105.5452841449363</v>
       </c>
       <c r="H3" t="n">
-        <v>36.66564863416971</v>
+        <v>66.41873133754432</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.3978788172526</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.94682028185201</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.968728372556612</v>
+        <v>35.72181107593123</v>
       </c>
       <c r="S3" t="n">
-        <v>99.94599751607818</v>
+        <v>82.5729452791883</v>
       </c>
       <c r="T3" t="n">
         <v>156.2372245900154</v>
@@ -22685,16 +22685,16 @@
         <v>195.3526364759353</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>181.8213290335219</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>181.3477538776599</v>
       </c>
       <c r="X3" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>128.0548573364337</v>
       </c>
     </row>
     <row r="4">
@@ -22795,19 +22795,19 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>393.8549876584436</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>366.3666737523534</v>
+        <v>370.8401668442341</v>
       </c>
       <c r="H5" t="n">
-        <v>262.6401406086984</v>
+        <v>300.1694450707848</v>
       </c>
       <c r="I5" t="n">
-        <v>19.23643939503437</v>
+        <v>56.76574385712077</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.09069110280002</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.579696329610428</v>
+        <v>9.579696329610385</v>
       </c>
       <c r="R5" t="n">
-        <v>40.5125885461229</v>
+        <v>40.51258854612288</v>
       </c>
       <c r="S5" t="n">
-        <v>116.9510516642238</v>
+        <v>79.42174720213734</v>
       </c>
       <c r="T5" t="n">
-        <v>216.7230808039846</v>
+        <v>179.1937763418982</v>
       </c>
       <c r="U5" t="n">
         <v>254.4302849789525</v>
@@ -22846,7 +22846,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>342.3933933940966</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -22871,19 +22871,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>81.75858338550887</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>70.340976557234</v>
       </c>
       <c r="G6" t="n">
         <v>105.5215890835718</v>
       </c>
       <c r="H6" t="n">
-        <v>66.18988692910271</v>
+        <v>66.1898869291027</v>
       </c>
       <c r="I6" t="n">
-        <v>26.58206201150025</v>
+        <v>26.58206201150024</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>34.25063875717579</v>
+        <v>20.7117932086151</v>
       </c>
       <c r="S6" t="n">
-        <v>85.96702659524229</v>
+        <v>61.9765676817164</v>
       </c>
       <c r="T6" t="n">
-        <v>118.6124124025167</v>
+        <v>118.6124124025166</v>
       </c>
       <c r="U6" t="n">
-        <v>157.8217731282328</v>
+        <v>195.3510775903192</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
@@ -22965,28 +22965,28 @@
         <v>105.1325298071908</v>
       </c>
       <c r="J7" t="n">
-        <v>27.80579301341918</v>
+        <v>27.80579301341917</v>
       </c>
       <c r="K7" t="n">
-        <v>13.42337108707595</v>
+        <v>13.42337108707594</v>
       </c>
       <c r="L7" t="n">
-        <v>4.943103517458702</v>
+        <v>4.943103517458681</v>
       </c>
       <c r="M7" t="n">
-        <v>3.878875624559484</v>
+        <v>3.878875624559463</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5722022158511351</v>
+        <v>0.5722022158511066</v>
       </c>
       <c r="O7" t="n">
-        <v>8.838421371704115</v>
+        <v>8.838421371704094</v>
       </c>
       <c r="P7" t="n">
-        <v>15.36087546843635</v>
+        <v>15.36087546843633</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37552856090303</v>
+        <v>33.37552856090301</v>
       </c>
       <c r="R7" t="n">
         <v>69.39351739781233</v>
@@ -23029,22 +23029,22 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>373.2249161496734</v>
       </c>
       <c r="F8" t="n">
-        <v>386.5023887637932</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>355.9681577937178</v>
+        <v>355.9681577937171</v>
       </c>
       <c r="H8" t="n">
-        <v>251.8674491651999</v>
+        <v>299.7547798810808</v>
       </c>
       <c r="I8" t="n">
-        <v>7.317433795352919</v>
+        <v>55.20476451123378</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.654178016541636</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.9691771243975</v>
+        <v>37.96917712439733</v>
       </c>
       <c r="S8" t="n">
-        <v>116.028392515157</v>
+        <v>68.14106179927532</v>
       </c>
       <c r="T8" t="n">
-        <v>216.5458371210427</v>
+        <v>216.5458371210426</v>
       </c>
       <c r="U8" t="n">
         <v>254.4270458025652</v>
@@ -23086,7 +23086,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>348.7496331368553</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -23108,16 +23108,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
-        <v>71.40055713171432</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>59.9829503034395</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>57.61259446570914</v>
+        <v>105.4999251815901</v>
       </c>
       <c r="H9" t="n">
-        <v>65.98065924417388</v>
+        <v>18.09332852829223</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>32.90557649202931</v>
+        <v>32.90557649202923</v>
       </c>
       <c r="S9" t="n">
-        <v>99.1034746662036</v>
+        <v>51.21614395032193</v>
       </c>
       <c r="T9" t="n">
         <v>156.0543961368785</v>
@@ -23162,13 +23162,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
-        <v>209.4626774388364</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
-        <v>174.5627220424961</v>
+        <v>126.6753913266145</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398083</v>
+        <v>156.1697808976091</v>
       </c>
     </row>
     <row r="10">
@@ -23199,43 +23199,43 @@
         <v>144.9786334357326</v>
       </c>
       <c r="I10" t="n">
-        <v>104.5863402830256</v>
+        <v>104.5863402830255</v>
       </c>
       <c r="J10" t="n">
-        <v>26.52171927417095</v>
+        <v>26.52171927417087</v>
       </c>
       <c r="K10" t="n">
-        <v>11.31324348162495</v>
+        <v>11.31324348162482</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07966528947656792</v>
+        <v>2.242866673988601</v>
       </c>
       <c r="M10" t="n">
-        <v>1.031854474262808</v>
+        <v>1.031854474262623</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>6.271264563444944</v>
+        <v>6.271264563444781</v>
       </c>
       <c r="P10" t="n">
-        <v>13.16422932892774</v>
+        <v>13.1642293289276</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.85468463493987</v>
+        <v>31.85468463493977</v>
       </c>
       <c r="R10" t="n">
-        <v>68.57687489886393</v>
+        <v>68.57687489886388</v>
       </c>
       <c r="S10" t="n">
-        <v>178.3872815272726</v>
+        <v>178.3872815272725</v>
       </c>
       <c r="T10" t="n">
         <v>235.6477391716879</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9509466713195</v>
+        <v>277.7877452868071</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>186.562410393748</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23266,16 +23266,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>190.6402558541756</v>
+        <v>190.6402558541757</v>
       </c>
       <c r="F11" t="n">
-        <v>197.2635504517526</v>
+        <v>197.2635504517528</v>
       </c>
       <c r="G11" t="n">
-        <v>183.6944827100386</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H11" t="n">
-        <v>100.1790576447434</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I11" t="n">
         <v>31.90177044380173</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>213.8998645763261</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3786899365281</v>
+        <v>163.247800412001</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>81.6172183036137</v>
       </c>
       <c r="F12" t="n">
         <v>107.8702810193205</v>
@@ -23354,7 +23354,7 @@
         <v>105.1765168157536</v>
       </c>
       <c r="H12" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>14.70128436951476</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>12.82588865527175</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>93.09630611656611</v>
       </c>
       <c r="T12" t="n">
-        <v>104.9084528173835</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>195.3283754674364</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23472,13 +23472,13 @@
         <v>234.4892545020035</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9361575053235</v>
+        <v>88.71502316134314</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>85.05783350223399</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>309.3313854455469</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -23506,13 +23506,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>197.2635504517527</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>403.2510401841353</v>
+        <v>306.4634577618378</v>
       </c>
       <c r="H14" t="n">
-        <v>293.5644734679276</v>
+        <v>74.00791599383106</v>
       </c>
       <c r="I14" t="n">
         <v>31.90177044380173</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3786899365281</v>
+        <v>34.8221324624316</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>177.3707488472942</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23579,10 +23579,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>107.8702810193205</v>
@@ -23624,25 +23624,25 @@
         <v>12.82588865527175</v>
       </c>
       <c r="S15" t="n">
-        <v>93.09630611656611</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>195.3283754674364</v>
       </c>
       <c r="V15" t="n">
-        <v>64.26605512382127</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>177.7469169833978</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -23709,7 +23709,7 @@
         <v>234.4892545020035</v>
       </c>
       <c r="U16" t="n">
-        <v>88.71502316134317</v>
+        <v>279.9361575053235</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23718,7 +23718,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>44.73928917493305</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23740,19 +23740,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>248.7131679488897</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>197.2635504517527</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>183.6944827100387</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H17" t="n">
-        <v>74.00791599383101</v>
+        <v>74.00791599383098</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>31.90177044380173</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3786899365281</v>
+        <v>34.82213246243151</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>249.5515966945865</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
         <v>115.7281862028015</v>
@@ -23825,7 +23825,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>62.85721528991137</v>
@@ -23861,22 +23861,22 @@
         <v>12.82588865527175</v>
       </c>
       <c r="S18" t="n">
-        <v>93.09630611656611</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U18" t="n">
-        <v>50.14236435571047</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>12.91798928289344</v>
       </c>
       <c r="Y18" t="n">
         <v>157.8079400398083</v>
@@ -23901,13 +23901,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>164.9543984734636</v>
       </c>
       <c r="H19" t="n">
-        <v>114.3316796649234</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I19" t="n">
         <v>96.43258009724632</v>
@@ -23949,7 +23949,7 @@
         <v>279.9361575053235</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>79.92575326589289</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>186.562410393748</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>186.4667873057659</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>190.6402558541756</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>197.2635504517527</v>
@@ -23989,7 +23989,7 @@
         <v>293.5644734679276</v>
       </c>
       <c r="I20" t="n">
-        <v>31.90177044380173</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>213.8998645763261</v>
+        <v>154.6707454956008</v>
       </c>
       <c r="U20" t="n">
         <v>254.3786899365281</v>
@@ -24031,13 +24031,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>160.3661403820865</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>203.5418904982066</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>11.43011416566422</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24056,16 +24056,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>32.43381750125992</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>14.70128436951476</v>
@@ -24101,7 +24101,7 @@
         <v>93.09630611656611</v>
       </c>
       <c r="T21" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>195.3283754674364</v>
@@ -24113,10 +24113,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -24141,10 +24141,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3012635078724</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I22" t="n">
         <v>96.43258009724632</v>
@@ -24183,7 +24183,7 @@
         <v>234.4892545020035</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9361575053235</v>
+        <v>88.71502316134317</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24211,16 +24211,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>285.0899515417858</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>56.51304218157613</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>345.600519418682</v>
       </c>
     </row>
     <row r="24">
@@ -24290,13 +24290,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>84.09228650034089</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>15.93883206781004</v>
       </c>
     </row>
     <row r="25">
@@ -24369,16 +24369,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>109.0685651901852</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H25" t="n">
         <v>139.2678442953623</v>
@@ -24420,10 +24420,10 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>15.36192872756644</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -24454,13 +24454,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>147.5161184294004</v>
       </c>
       <c r="Y26" t="n">
-        <v>75.52191120304269</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24524,10 +24524,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>104.7337711575492</v>
+        <v>45.86019485922992</v>
       </c>
       <c r="H27" t="n">
         <v>58.58122432777904</v>
@@ -24578,7 +24578,7 @@
         <v>152.9662577680471</v>
       </c>
       <c r="U27" t="n">
-        <v>189.5097304430259</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>90.15081818251797</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24618,7 +24618,7 @@
         <v>164.5832153864156</v>
       </c>
       <c r="H28" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>85.27009235220248</v>
@@ -24660,10 +24660,10 @@
         <v>279.9159111551209</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>11.72498541865991</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>205.017061186396</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>256.4323241186009</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>285.0899515417858</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T29" t="n">
         <v>210.2775313912475</v>
@@ -24742,10 +24742,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24764,19 +24764,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7281862028015</v>
+        <v>88.14639335386508</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>10.38823663270198</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24894,19 +24894,19 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9159111551209</v>
+        <v>15.36192872756646</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.5706044367126</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>184.8339171132837</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T32" t="n">
         <v>210.2775313912475</v>
       </c>
       <c r="U32" t="n">
-        <v>0.6181694048464946</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -25001,13 +25001,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>62.80781840824041</v>
       </c>
       <c r="E33" t="n">
-        <v>23.03129545485599</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>104.7337711575492</v>
@@ -25046,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.75319409913199</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H34" t="n">
-        <v>90.43671125522849</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>85.27009235220248</v>
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>277.6184182956672</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>285.0899515417858</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>210.2775313912475</v>
@@ -25216,13 +25216,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>154.6676109704491</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>132.6551205385437</v>
+        <v>73.78154424022445</v>
       </c>
       <c r="D36" t="n">
         <v>115.7281862028015</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>203.380174347936</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>167.1934341018228</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>248.2652191303648</v>
+        <v>15.36192872756644</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25444,22 +25444,22 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T38" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.453001848251997</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>179.7376797088796</v>
       </c>
     </row>
     <row r="39">
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>87.84779969904076</v>
       </c>
       <c r="D39" t="n">
-        <v>115.3178193441573</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>104.7337711575492</v>
@@ -25605,19 +25605,19 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>20.49400896390756</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>202.6638062617296</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>72.07715221337014</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U41" t="n">
         <v>254.3124908149276</v>
@@ -25690,10 +25690,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>278.9331774265468</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,10 +25757,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>84.8724997021109</v>
+        <v>84.09228650034071</v>
       </c>
       <c r="T42" t="n">
-        <v>115.3178193441572</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25842,19 +25842,19 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9159111551209</v>
+        <v>20.49400896390756</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.9926196316998</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>340.6401952202687</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>285.0899515417858</v>
@@ -25918,7 +25918,7 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T44" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.3124908149276</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>89.28376804749587</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25946,10 +25946,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T45" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>41.01851258746868</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>30.82356642996157</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>164.5832153864156</v>
@@ -26079,13 +26079,13 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>174.7098000491745</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>20.49400896390753</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>135775.978935458</v>
+        <v>135775.9789354581</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>144078.1858849843</v>
+        <v>144078.1858849849</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>256251.8196686642</v>
+        <v>256251.8196686641</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>256251.8196686641</v>
+        <v>256251.8196686642</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>407447.2137776625</v>
+        <v>407447.2137776624</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>407447.2137776625</v>
+        <v>407447.2137776626</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>407447.2137776625</v>
+        <v>407447.2137776628</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>407447.2137776624</v>
+        <v>407447.2137776625</v>
       </c>
     </row>
     <row r="16">
@@ -26316,37 +26316,37 @@
         <v>54721.25404904633</v>
       </c>
       <c r="C2" t="n">
-        <v>58189.70525805342</v>
+        <v>58189.70525805345</v>
       </c>
       <c r="D2" t="n">
-        <v>61747.79395070754</v>
+        <v>61747.79395070776</v>
       </c>
       <c r="E2" t="n">
-        <v>109822.2084294276</v>
+        <v>109822.2084294275</v>
       </c>
       <c r="F2" t="n">
         <v>109822.2084294275</v>
       </c>
       <c r="G2" t="n">
-        <v>109822.2084294275</v>
+        <v>109822.2084294276</v>
       </c>
       <c r="H2" t="n">
-        <v>109822.2084294275</v>
+        <v>109822.2084294276</v>
       </c>
       <c r="I2" t="n">
-        <v>174620.2344761411</v>
+        <v>174620.2344761412</v>
       </c>
       <c r="J2" t="n">
-        <v>174620.2344761411</v>
+        <v>174620.2344761412</v>
       </c>
       <c r="K2" t="n">
-        <v>174620.2344761411</v>
+        <v>174620.2344761412</v>
       </c>
       <c r="L2" t="n">
         <v>174620.2344761412</v>
       </c>
       <c r="M2" t="n">
-        <v>174620.2344761411</v>
+        <v>174620.2344761412</v>
       </c>
       <c r="N2" t="n">
         <v>174620.2344761412</v>
@@ -26355,7 +26355,7 @@
         <v>174620.2344761412</v>
       </c>
       <c r="P2" t="n">
-        <v>174620.2344761411</v>
+        <v>174620.2344761412</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177936.7431521273</v>
+        <v>177936.7431521274</v>
       </c>
       <c r="C3" t="n">
-        <v>12543.57477385601</v>
+        <v>12543.57477385611</v>
       </c>
       <c r="D3" t="n">
-        <v>11843.15627806264</v>
+        <v>11843.15627806332</v>
       </c>
       <c r="E3" t="n">
-        <v>172053.5343950776</v>
+        <v>172053.5343950768</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>222021.1128848242</v>
       </c>
       <c r="J3" t="n">
-        <v>7784.715570841733</v>
+        <v>7784.715570841719</v>
       </c>
       <c r="K3" t="n">
-        <v>2001.350641596136</v>
+        <v>2001.350641596171</v>
       </c>
       <c r="L3" t="n">
-        <v>2621.523222599133</v>
+        <v>2621.523222599259</v>
       </c>
       <c r="M3" t="n">
-        <v>42780.65798505436</v>
+        <v>42780.6579850542</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.22033770814079</v>
+        <v>20.2203377081408</v>
       </c>
       <c r="C4" t="n">
-        <v>27.19396146355787</v>
+        <v>27.19396146355793</v>
       </c>
       <c r="D4" t="n">
-        <v>34.77890649583037</v>
+        <v>34.77890649583085</v>
       </c>
       <c r="E4" t="n">
         <v>155.6503797250003</v>
@@ -26456,7 +26456,7 @@
         <v>331.9759880256581</v>
       </c>
       <c r="O4" t="n">
-        <v>331.9759880256582</v>
+        <v>331.9759880256581</v>
       </c>
       <c r="P4" t="n">
         <v>331.9759880256581</v>
@@ -26475,10 +26475,10 @@
         <v>39949.45546466367</v>
       </c>
       <c r="D5" t="n">
-        <v>40798.78900782151</v>
+        <v>40798.78900782156</v>
       </c>
       <c r="E5" t="n">
-        <v>20886.4501516283</v>
+        <v>20886.45015162829</v>
       </c>
       <c r="F5" t="n">
         <v>20886.45015162829</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-162472.2190970795</v>
+        <v>-163840.4656271705</v>
       </c>
       <c r="C6" t="n">
-        <v>5669.481058070181</v>
+        <v>4317.750962307706</v>
       </c>
       <c r="D6" t="n">
-        <v>9071.069758327554</v>
+        <v>7736.282942053464</v>
       </c>
       <c r="E6" t="n">
-        <v>-83273.42649700328</v>
+        <v>-84379.28753004415</v>
       </c>
       <c r="F6" t="n">
-        <v>88780.10789807423</v>
+        <v>87674.24686503266</v>
       </c>
       <c r="G6" t="n">
-        <v>88780.10789807423</v>
+        <v>87674.24686503269</v>
       </c>
       <c r="H6" t="n">
-        <v>88780.10789807425</v>
+        <v>87674.24686503268</v>
       </c>
       <c r="I6" t="n">
-        <v>-88442.97553595158</v>
+        <v>-89240.2745401992</v>
       </c>
       <c r="J6" t="n">
-        <v>125793.4217780308</v>
+        <v>124996.1227737832</v>
       </c>
       <c r="K6" t="n">
-        <v>131576.7867072764</v>
+        <v>130779.4877030287</v>
       </c>
       <c r="L6" t="n">
-        <v>130956.6141262735</v>
+        <v>130159.3151220256</v>
       </c>
       <c r="M6" t="n">
-        <v>90797.47936381822</v>
+        <v>90000.18035957078</v>
       </c>
       <c r="N6" t="n">
-        <v>133578.1373488726</v>
+        <v>132780.8383446249</v>
       </c>
       <c r="O6" t="n">
-        <v>133578.1373488726</v>
+        <v>132780.838344625</v>
       </c>
       <c r="P6" t="n">
-        <v>133578.1373488725</v>
+        <v>132780.8383446249</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>174.3083590791369</v>
       </c>
       <c r="C3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="D3" t="n">
-        <v>195.3962981787132</v>
+        <v>195.3962981787139</v>
       </c>
       <c r="E3" t="n">
         <v>345.7528191377625</v>
@@ -26792,16 +26792,16 @@
         <v>29.75308270337462</v>
       </c>
       <c r="C4" t="n">
-        <v>37.52930446208641</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="D4" t="n">
-        <v>47.88733071588096</v>
+        <v>47.88733071588164</v>
       </c>
       <c r="E4" t="n">
-        <v>219.5565574740967</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="F4" t="n">
-        <v>219.5565574740966</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="G4" t="n">
         <v>219.5565574740966</v>
@@ -26813,25 +26813,25 @@
         <v>471.8000591907775</v>
       </c>
       <c r="J4" t="n">
+        <v>471.8000591907774</v>
+      </c>
+      <c r="K4" t="n">
+        <v>471.8000591907774</v>
+      </c>
+      <c r="L4" t="n">
+        <v>471.8000591907774</v>
+      </c>
+      <c r="M4" t="n">
         <v>471.8000591907775</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>471.8000591907775</v>
       </c>
-      <c r="L4" t="n">
-        <v>471.8000591907775</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>471.8000591907774</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>471.8000591907774</v>
-      </c>
-      <c r="O4" t="n">
-        <v>471.8000591907775</v>
-      </c>
-      <c r="P4" t="n">
-        <v>471.8000591907775</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>174.3083590791369</v>
       </c>
       <c r="C3" t="n">
-        <v>11.01612502035013</v>
+        <v>11.01612502035022</v>
       </c>
       <c r="D3" t="n">
-        <v>10.07181407922621</v>
+        <v>10.07181407922678</v>
       </c>
       <c r="E3" t="n">
-        <v>150.3565209590492</v>
+        <v>150.3565209590486</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>29.75308270337462</v>
       </c>
       <c r="C4" t="n">
-        <v>7.776221758711792</v>
+        <v>7.776221758711849</v>
       </c>
       <c r="D4" t="n">
-        <v>10.35802625379456</v>
+        <v>10.35802625379517</v>
       </c>
       <c r="E4" t="n">
-        <v>171.6692267582157</v>
+        <v>171.6692267582149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>252.2435017166809</v>
       </c>
       <c r="J4" t="n">
-        <v>29.75308270337456</v>
+        <v>29.7530827033745</v>
       </c>
       <c r="K4" t="n">
-        <v>7.776221758711792</v>
+        <v>7.776221758711927</v>
       </c>
       <c r="L4" t="n">
-        <v>10.35802625379462</v>
+        <v>10.35802625379512</v>
       </c>
       <c r="M4" t="n">
-        <v>171.6692267582156</v>
+        <v>171.669226758215</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>29.75308270337462</v>
       </c>
       <c r="K4" t="n">
-        <v>7.776221758711792</v>
+        <v>7.776221758711849</v>
       </c>
       <c r="L4" t="n">
-        <v>10.35802625379456</v>
+        <v>10.35802625379517</v>
       </c>
       <c r="M4" t="n">
-        <v>171.6692267582157</v>
+        <v>171.6692267582149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31135,10 +31135,10 @@
         <v>60.54255524732626</v>
       </c>
       <c r="L3" t="n">
-        <v>62.61363243459198</v>
+        <v>81.40693694540256</v>
       </c>
       <c r="M3" t="n">
-        <v>87.31736644179205</v>
+        <v>68.52406193098145</v>
       </c>
       <c r="N3" t="n">
         <v>82.94647609712462</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7450230516562286</v>
+        <v>0.7450230516562291</v>
       </c>
       <c r="H5" t="n">
-        <v>7.629967327774354</v>
+        <v>7.629967327774358</v>
       </c>
       <c r="I5" t="n">
-        <v>28.72250119897678</v>
+        <v>28.7225011989768</v>
       </c>
       <c r="J5" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050792</v>
       </c>
       <c r="K5" t="n">
-        <v>94.76972600711608</v>
+        <v>94.76972600711612</v>
       </c>
       <c r="L5" t="n">
-        <v>117.5702252242404</v>
+        <v>117.5702252242405</v>
       </c>
       <c r="M5" t="n">
         <v>130.8195289191319</v>
       </c>
       <c r="N5" t="n">
-        <v>130.4415952187057</v>
+        <v>130.4415952187058</v>
       </c>
       <c r="O5" t="n">
         <v>125.5280026947435</v>
       </c>
       <c r="P5" t="n">
-        <v>107.1352461069803</v>
+        <v>107.1352461069804</v>
       </c>
       <c r="Q5" t="n">
-        <v>80.45410806954162</v>
+        <v>80.45410806954166</v>
       </c>
       <c r="R5" t="n">
-        <v>46.79955426860062</v>
+        <v>46.79955426860064</v>
       </c>
       <c r="S5" t="n">
         <v>16.97721278961633</v>
       </c>
       <c r="T5" t="n">
-        <v>3.261338408625143</v>
+        <v>3.261338408625144</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05960184413249828</v>
+        <v>0.05960184413249831</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3986224752328589</v>
+        <v>0.3986224752328591</v>
       </c>
       <c r="H6" t="n">
-        <v>3.849853905538401</v>
+        <v>3.849853905538403</v>
       </c>
       <c r="I6" t="n">
-        <v>13.72450188849975</v>
+        <v>13.72450188849976</v>
       </c>
       <c r="J6" t="n">
-        <v>37.66108218855708</v>
+        <v>37.6610821885571</v>
       </c>
       <c r="K6" t="n">
-        <v>64.36878802915862</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>62.16306937768393</v>
+        <v>86.55177910702935</v>
       </c>
       <c r="M6" t="n">
-        <v>95.09358820050383</v>
+        <v>95.09358820050389</v>
       </c>
       <c r="N6" t="n">
-        <v>90.7226978558364</v>
+        <v>90.72269785583646</v>
       </c>
       <c r="O6" t="n">
-        <v>94.84242725419691</v>
+        <v>78.99672276939479</v>
       </c>
       <c r="P6" t="n">
-        <v>76.11940932757987</v>
+        <v>76.11940932757992</v>
       </c>
       <c r="Q6" t="n">
-        <v>50.88380929463652</v>
+        <v>50.88380929463654</v>
       </c>
       <c r="R6" t="n">
-        <v>24.74956034822962</v>
+        <v>24.74956034822963</v>
       </c>
       <c r="S6" t="n">
-        <v>7.404237643031387</v>
+        <v>7.404237643031391</v>
       </c>
       <c r="T6" t="n">
         <v>1.60672831025876</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426706</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3341916926384192</v>
+        <v>0.3341916926384194</v>
       </c>
       <c r="H7" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I7" t="n">
-        <v>10.05005562952628</v>
+        <v>10.05005562952629</v>
       </c>
       <c r="J7" t="n">
-        <v>23.62735266953624</v>
+        <v>23.62735266953625</v>
       </c>
       <c r="K7" t="n">
-        <v>38.82699847199088</v>
+        <v>38.82699847199089</v>
       </c>
       <c r="L7" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644283</v>
       </c>
       <c r="M7" t="n">
-        <v>52.38606687422056</v>
+        <v>52.38606687422058</v>
       </c>
       <c r="N7" t="n">
-        <v>51.14044329256831</v>
+        <v>51.14044329256834</v>
       </c>
       <c r="O7" t="n">
-        <v>47.23647670129221</v>
+        <v>47.23647670129223</v>
       </c>
       <c r="P7" t="n">
-        <v>40.41896617146843</v>
+        <v>40.41896617146845</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.98399709902254</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R7" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S7" t="n">
-        <v>5.824049770798631</v>
+        <v>5.824049770798633</v>
       </c>
       <c r="T7" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7855127564973391</v>
+        <v>0.7855127564973416</v>
       </c>
       <c r="H8" t="n">
-        <v>8.044632517478375</v>
+        <v>8.044632517478403</v>
       </c>
       <c r="I8" t="n">
-        <v>30.28348054486369</v>
+        <v>30.2834805448638</v>
       </c>
       <c r="J8" t="n">
-        <v>66.6694133167661</v>
+        <v>66.66941331676631</v>
       </c>
       <c r="K8" t="n">
-        <v>99.92016829929847</v>
+        <v>99.92016829929881</v>
       </c>
       <c r="L8" t="n">
-        <v>123.9598043209539</v>
+        <v>123.9598043209543</v>
       </c>
       <c r="M8" t="n">
-        <v>137.9291668043135</v>
+        <v>137.929166804314</v>
       </c>
       <c r="N8" t="n">
-        <v>140.1610049237116</v>
+        <v>140.161004923712</v>
       </c>
       <c r="O8" t="n">
-        <v>132.3500624512911</v>
+        <v>132.3500624512916</v>
       </c>
       <c r="P8" t="n">
-        <v>112.9577162752631</v>
+        <v>112.9577162752634</v>
       </c>
       <c r="Q8" t="n">
-        <v>84.82654068320208</v>
+        <v>84.82654068320237</v>
       </c>
       <c r="R8" t="n">
-        <v>49.34296569032602</v>
+        <v>49.34296569032618</v>
       </c>
       <c r="S8" t="n">
-        <v>17.89987193868313</v>
+        <v>17.89987193868319</v>
       </c>
       <c r="T8" t="n">
-        <v>3.438582091567103</v>
+        <v>3.438582091567115</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06284102051978711</v>
+        <v>0.06284102051978732</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4202863772145908</v>
+        <v>0.4202863772145922</v>
       </c>
       <c r="H9" t="n">
-        <v>4.059081590467232</v>
+        <v>4.059081590467246</v>
       </c>
       <c r="I9" t="n">
-        <v>14.47038623304622</v>
+        <v>14.47038623304627</v>
       </c>
       <c r="J9" t="n">
-        <v>39.70784584026097</v>
+        <v>39.7078458402611</v>
       </c>
       <c r="K9" t="n">
-        <v>67.86703311363854</v>
+        <v>67.86703311363877</v>
       </c>
       <c r="L9" t="n">
-        <v>91.25560133336981</v>
+        <v>91.25560133337012</v>
       </c>
       <c r="M9" t="n">
-        <v>83.86713532237104</v>
+        <v>105.4516144542991</v>
       </c>
       <c r="N9" t="n">
-        <v>101.0807241096309</v>
+        <v>101.0807241096316</v>
       </c>
       <c r="O9" t="n">
-        <v>99.99682063491186</v>
+        <v>99.9968206349122</v>
       </c>
       <c r="P9" t="n">
-        <v>80.25626443495111</v>
+        <v>58.67178530302422</v>
       </c>
       <c r="Q9" t="n">
-        <v>53.6491873791818</v>
+        <v>53.64918737918198</v>
       </c>
       <c r="R9" t="n">
-        <v>26.09462261337609</v>
+        <v>26.09462261337618</v>
       </c>
       <c r="S9" t="n">
-        <v>7.806635120630661</v>
+        <v>7.806635120630687</v>
       </c>
       <c r="T9" t="n">
-        <v>1.694049037983372</v>
+        <v>1.694049037983377</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02765041955359151</v>
+        <v>0.0276504195535916</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3523539803222697</v>
+        <v>0.3523539803222709</v>
       </c>
       <c r="H10" t="n">
-        <v>3.132747206865273</v>
+        <v>3.132747206865284</v>
       </c>
       <c r="I10" t="n">
-        <v>10.59624515369153</v>
+        <v>10.59624515369157</v>
       </c>
       <c r="J10" t="n">
-        <v>24.91142640878447</v>
+        <v>24.91142640878455</v>
       </c>
       <c r="K10" t="n">
-        <v>40.93712607744187</v>
+        <v>40.93712607744201</v>
       </c>
       <c r="L10" t="n">
-        <v>52.38542721991273</v>
+        <v>52.38542721991291</v>
       </c>
       <c r="M10" t="n">
-        <v>55.23308802451724</v>
+        <v>55.23308802451742</v>
       </c>
       <c r="N10" t="n">
-        <v>53.9197686433161</v>
+        <v>53.91976864331627</v>
       </c>
       <c r="O10" t="n">
-        <v>49.80363350955138</v>
+        <v>49.80363350955155</v>
       </c>
       <c r="P10" t="n">
-        <v>42.61561231097704</v>
+        <v>42.61561231097718</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.5048410249857</v>
+        <v>29.5048410249858</v>
       </c>
       <c r="R10" t="n">
-        <v>15.84311624249042</v>
+        <v>15.84311624249047</v>
       </c>
       <c r="S10" t="n">
-        <v>6.14056891161628</v>
+        <v>6.140568911616301</v>
       </c>
       <c r="T10" t="n">
-        <v>1.50551246137697</v>
+        <v>1.505512461376975</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01921930801757837</v>
+        <v>0.01921930801757844</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
-        <v>188.2033055918544</v>
+        <v>188.2033055918542</v>
       </c>
       <c r="K41" t="n">
         <v>282.0679684081336</v>
@@ -34155,7 +34155,7 @@
         <v>239.4596646988303</v>
       </c>
       <c r="R41" t="n">
-        <v>139.2918999677087</v>
+        <v>139.2918999677086</v>
       </c>
       <c r="S41" t="n">
         <v>50.53014419858177</v>
@@ -34783,10 +34783,10 @@
         <v>4.716772462710864</v>
       </c>
       <c r="L3" t="n">
-        <v>6.499108623742925</v>
+        <v>25.29241313455351</v>
       </c>
       <c r="M3" t="n">
-        <v>29.75308270337462</v>
+        <v>10.95977819256403</v>
       </c>
       <c r="N3" t="n">
         <v>29.75308270337462</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>5.633336333898953</v>
+        <v>5.633336333898995</v>
       </c>
       <c r="L5" t="n">
-        <v>22.08482716139558</v>
+        <v>22.08482716139564</v>
       </c>
       <c r="M5" t="n">
-        <v>37.52930446208642</v>
+        <v>37.52930446208647</v>
       </c>
       <c r="N5" t="n">
-        <v>37.52930446208641</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="O5" t="n">
-        <v>32.33822706896036</v>
+        <v>32.33822706896042</v>
       </c>
       <c r="P5" t="n">
-        <v>13.48588282609617</v>
+        <v>13.48588282609623</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>8.543005244543231</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>6.048545566834878</v>
+        <v>30.4372552961803</v>
       </c>
       <c r="M6" t="n">
-        <v>37.52930446208641</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="N6" t="n">
-        <v>37.52930446208641</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="O6" t="n">
-        <v>37.09094825419691</v>
+        <v>21.2452437693948</v>
       </c>
       <c r="P6" t="n">
-        <v>21.85977432477613</v>
+        <v>21.85977432477617</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>10.78377862608134</v>
+        <v>10.78377862608168</v>
       </c>
       <c r="L8" t="n">
-        <v>28.47440625810911</v>
+        <v>28.47440625810952</v>
       </c>
       <c r="M8" t="n">
-        <v>44.63894234726804</v>
+        <v>44.6389423472685</v>
       </c>
       <c r="N8" t="n">
-        <v>47.24871416709225</v>
+        <v>47.2487141670927</v>
       </c>
       <c r="O8" t="n">
-        <v>39.16028682550801</v>
+        <v>39.16028682550846</v>
       </c>
       <c r="P8" t="n">
-        <v>19.30835299437891</v>
+        <v>19.30835299437928</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>12.04125032902315</v>
+        <v>12.04125032902338</v>
       </c>
       <c r="L9" t="n">
-        <v>35.14107752252076</v>
+        <v>35.14107752252107</v>
       </c>
       <c r="M9" t="n">
-        <v>26.30285158395362</v>
+        <v>47.88733071588164</v>
       </c>
       <c r="N9" t="n">
-        <v>47.88733071588096</v>
+        <v>47.88733071588164</v>
       </c>
       <c r="O9" t="n">
-        <v>42.24534163491186</v>
+        <v>42.2453416349122</v>
       </c>
       <c r="P9" t="n">
-        <v>25.99662943214736</v>
+        <v>4.412150300220477</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35342,7 +35342,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2.207123134896655</v>
+        <v>2.207123134896833</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>114.8797142585465</v>
+        <v>114.8797142585463</v>
       </c>
       <c r="K41" t="n">
         <v>192.9315787349165</v>
@@ -37803,7 +37803,7 @@
         <v>149.4258602996782</v>
       </c>
       <c r="R41" t="n">
-        <v>51.97975715298516</v>
+        <v>51.97975715298507</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
